--- a/biology/Médecine/Bisacodyl/Bisacodyl.xlsx
+++ b/biology/Médecine/Bisacodyl/Bisacodyl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bisacodyl est une molécule dérivée du pyridylméthane. Il est utilisé comme médicament pour traiter la constipation et fait partie des laxatifs de contact (irritants ou stimulants).
@@ -512,10 +524,12 @@
           <t>Développement et commercialisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bisacodyl est utilisé comme médicament depuis 1953[2], sous forme de comprimés et de suppositoires initialement commercialisés par Pfizer.
-Sous le nom de marque Dulcolax, il est ensuite exploité par le laboratoire pharmaceutique allemand Boehringer-Ingelheim, puis cédé au français Sanofi en décembre 2015[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bisacodyl est utilisé comme médicament depuis 1953, sous forme de comprimés et de suppositoires initialement commercialisés par Pfizer.
+Sous le nom de marque Dulcolax, il est ensuite exploité par le laboratoire pharmaceutique allemand Boehringer-Ingelheim, puis cédé au français Sanofi en décembre 2015.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Spécialités contenant du bisacodyl</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Médicaments contenant du bisacodyl commercialisés en France[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Médicaments contenant du bisacodyl commercialisés en France :
 Dulcolax ;
 Contalax.
 Médicaments contenant du bisacodyl commercialisés dans d'autres pays :
